--- a/excel/quiz.xlsx
+++ b/excel/quiz.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Engineering\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1B712-DE93-4A20-BA58-3A510AF4EE9E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704"/>
   </bookViews>
   <sheets>
     <sheet name="V21" sheetId="1" r:id="rId1"/>
@@ -36,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +44,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,11 +360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,11 +384,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>201410679</v>
+      <c r="A2" s="1">
+        <v>201511281</v>
       </c>
       <c r="B2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>201511438</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>201411491</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>201410679</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>201411851</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/excel/quiz.xlsx
+++ b/excel/quiz.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704"/>
   </bookViews>
   <sheets>
-    <sheet name="V21" sheetId="1" r:id="rId1"/>
+    <sheet name="F21" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,19 +36,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,10 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,16 +358,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -385,7 +377,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>201511281</v>
+        <v>201512691</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -393,7 +385,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>201511438</v>
+        <v>201410367</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -401,7 +393,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>201411491</v>
+        <v>201310584</v>
       </c>
       <c r="B4">
         <v>70</v>
@@ -409,18 +401,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>201410679</v>
+        <v>201710117</v>
       </c>
       <c r="B5">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>201411851</v>
+      <c r="A6" s="1">
+        <v>201310916</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
